--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fn1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fn1-Itgb1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>21.84976866666667</v>
+        <v>6.206015333333333</v>
       </c>
       <c r="H2">
-        <v>65.549306</v>
+        <v>18.618046</v>
       </c>
       <c r="I2">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="J2">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N2">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O2">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P2">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q2">
-        <v>2458.391587101984</v>
+        <v>378.8251448759638</v>
       </c>
       <c r="R2">
-        <v>22125.52428391785</v>
+        <v>3409.426303883674</v>
       </c>
       <c r="S2">
-        <v>0.01644213301993311</v>
+        <v>0.003068943465410768</v>
       </c>
       <c r="T2">
-        <v>0.01644213301993311</v>
+        <v>0.003068943465410768</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>21.84976866666667</v>
+        <v>6.206015333333333</v>
       </c>
       <c r="H3">
-        <v>65.549306</v>
+        <v>18.618046</v>
       </c>
       <c r="I3">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="J3">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>318.943398</v>
       </c>
       <c r="O3">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P3">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q3">
-        <v>2322.946488020199</v>
+        <v>659.7892061511453</v>
       </c>
       <c r="R3">
-        <v>20906.51839218179</v>
+        <v>5938.102855360308</v>
       </c>
       <c r="S3">
-        <v>0.01553625360361685</v>
+        <v>0.005345093376600173</v>
       </c>
       <c r="T3">
-        <v>0.01553625360361686</v>
+        <v>0.005345093376600174</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>21.84976866666667</v>
+        <v>6.206015333333333</v>
       </c>
       <c r="H4">
-        <v>65.549306</v>
+        <v>18.618046</v>
       </c>
       <c r="I4">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="J4">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N4">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O4">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P4">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q4">
-        <v>2724.483823697066</v>
+        <v>815.0881821782764</v>
       </c>
       <c r="R4">
-        <v>24520.3544132736</v>
+        <v>7335.793639604488</v>
       </c>
       <c r="S4">
-        <v>0.01822180228524546</v>
+        <v>0.006603203573639757</v>
       </c>
       <c r="T4">
-        <v>0.01822180228524546</v>
+        <v>0.006603203573639757</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1155.157411</v>
       </c>
       <c r="I5">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597572</v>
       </c>
       <c r="J5">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597571</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N5">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O5">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P5">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q5">
-        <v>43323.55953518271</v>
+        <v>23504.22131176485</v>
       </c>
       <c r="R5">
-        <v>389912.0358166444</v>
+        <v>211537.9918058837</v>
       </c>
       <c r="S5">
-        <v>0.2897551929935543</v>
+        <v>0.1904127204331363</v>
       </c>
       <c r="T5">
-        <v>0.2897551929935543</v>
+        <v>0.1904127204331363</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1155.157411</v>
       </c>
       <c r="I6">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597572</v>
       </c>
       <c r="J6">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597571</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>318.943398</v>
       </c>
       <c r="O6">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P6">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q6">
         <v>40936.64776546918</v>
@@ -818,10 +818,10 @@
         <v>368429.8298892226</v>
       </c>
       <c r="S6">
-        <v>0.2737911289158953</v>
+        <v>0.3316365329888381</v>
       </c>
       <c r="T6">
-        <v>0.2737911289158954</v>
+        <v>0.3316365329888381</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1155.157411</v>
       </c>
       <c r="I7">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597572</v>
       </c>
       <c r="J7">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597571</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N7">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O7">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P7">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q7">
-        <v>48012.82991605256</v>
+        <v>50572.17896345052</v>
       </c>
       <c r="R7">
-        <v>432115.4692444731</v>
+        <v>455149.6106710547</v>
       </c>
       <c r="S7">
-        <v>0.3211178155200916</v>
+        <v>0.4096960306377828</v>
       </c>
       <c r="T7">
-        <v>0.3211178155200917</v>
+        <v>0.4096960306377828</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>28.350479</v>
+        <v>22.00088566666667</v>
       </c>
       <c r="H8">
-        <v>85.05143699999999</v>
+        <v>66.002657</v>
       </c>
       <c r="I8">
-        <v>0.06513567366166337</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="J8">
-        <v>0.06513567366166337</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N8">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O8">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P8">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q8">
-        <v>3189.808557114768</v>
+        <v>1342.969401849343</v>
       </c>
       <c r="R8">
-        <v>28708.27701403291</v>
+        <v>12086.72461664409</v>
       </c>
       <c r="S8">
-        <v>0.02133397172336898</v>
+        <v>0.01087968215890638</v>
       </c>
       <c r="T8">
-        <v>0.02133397172336898</v>
+        <v>0.01087968215890638</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>28.350479</v>
+        <v>22.00088566666667</v>
       </c>
       <c r="H9">
-        <v>85.05143699999999</v>
+        <v>66.002657</v>
       </c>
       <c r="I9">
-        <v>0.06513567366166337</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="J9">
-        <v>0.06513567366166337</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>318.943398</v>
       </c>
       <c r="O9">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P9">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q9">
-        <v>3014.066035729214</v>
+        <v>2339.01241117872</v>
       </c>
       <c r="R9">
-        <v>27126.59432156292</v>
+        <v>21051.11170060849</v>
       </c>
       <c r="S9">
-        <v>0.02015857642465416</v>
+        <v>0.01894883946299806</v>
       </c>
       <c r="T9">
-        <v>0.02015857642465417</v>
+        <v>0.01894883946299806</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>28.350479</v>
+        <v>22.00088566666667</v>
       </c>
       <c r="H10">
-        <v>85.05143699999999</v>
+        <v>66.002657</v>
       </c>
       <c r="I10">
-        <v>0.06513567366166337</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="J10">
-        <v>0.06513567366166337</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N10">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O10">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P10">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q10">
-        <v>3535.068156002905</v>
+        <v>2889.561327384532</v>
       </c>
       <c r="R10">
-        <v>31815.61340402614</v>
+        <v>26006.05194646079</v>
       </c>
       <c r="S10">
-        <v>0.02364312551364023</v>
+        <v>0.0234089539026877</v>
       </c>
       <c r="T10">
-        <v>0.02364312551364023</v>
+        <v>0.0234089539026877</v>
       </c>
     </row>
   </sheetData>
